--- a/NEW HR/ANGCAYA, IRENE VILLANUEVA.xlsx
+++ b/NEW HR/ANGCAYA, IRENE VILLANUEVA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="116">
   <si>
     <t>PERIOD</t>
   </si>
@@ -361,6 +361,30 @@
   </si>
   <si>
     <t>9/15,22,25/2023</t>
+  </si>
+  <si>
+    <t>10/9,11/2023</t>
+  </si>
+  <si>
+    <t>10/20,23,26,27/2023</t>
+  </si>
+  <si>
+    <t>11/3,9,10,13/2023</t>
+  </si>
+  <si>
+    <t>11/16,17,21,24,28/2023</t>
+  </si>
+  <si>
+    <t>12/1,5,7,14,15/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>11/5,19/2023</t>
+  </si>
+  <si>
+    <t>12/19,22,28,29/2023</t>
   </si>
 </sst>
 </file>
@@ -2708,7 +2732,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K142" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K144" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -2738,7 +2762,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K119" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -3085,12 +3109,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K142"/>
+  <dimension ref="A2:K144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A77" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K92" sqref="K92"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A84" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3251,7 +3275,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>61.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3261,7 +3285,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>70.5</v>
+        <v>72.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4973,13 +4997,15 @@
       <c r="B91" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C91" s="13"/>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
@@ -5012,43 +5038,57 @@
       <c r="A93" s="41">
         <v>45200</v>
       </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="13"/>
+      <c r="B93" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D93" s="39"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H93" s="39"/>
+      <c r="G93" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H93" s="39">
+        <v>2</v>
+      </c>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
+      <c r="K93" s="20" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="41">
         <v>45231</v>
       </c>
-      <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
+      <c r="B94" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
+      <c r="K94" s="49">
+        <v>45271</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="41">
-        <v>45261</v>
-      </c>
-      <c r="B95" s="20"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
@@ -5060,10 +5100,14 @@
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
+      <c r="K95" s="49" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="41">
+        <v>45261</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5079,7 +5123,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+      <c r="A97" s="48" t="s">
+        <v>113</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -5095,7 +5141,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+      <c r="A98" s="41">
+        <v>45292</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -5111,7 +5159,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+      <c r="A99" s="41">
+        <v>45323</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -5127,7 +5177,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+      <c r="A100" s="41">
+        <v>45352</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -5143,7 +5195,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+      <c r="A101" s="41">
+        <v>45383</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -5159,7 +5213,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+      <c r="A102" s="41">
+        <v>45413</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -5175,7 +5231,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+      <c r="A103" s="41">
+        <v>45444</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -5191,7 +5249,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
+      <c r="A104" s="41">
+        <v>45474</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -5207,7 +5267,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
+      <c r="A105" s="41">
+        <v>45505</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -5223,7 +5285,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+      <c r="A106" s="41">
+        <v>45536</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -5239,7 +5303,9 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
+      <c r="A107" s="41">
+        <v>45566</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -5255,7 +5321,9 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
+      <c r="A108" s="41">
+        <v>45597</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -5271,7 +5339,9 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
+      <c r="A109" s="41">
+        <v>45627</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -5287,7 +5357,9 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
+      <c r="A110" s="41">
+        <v>45658</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -5303,7 +5375,9 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
+      <c r="A111" s="41">
+        <v>45689</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -5799,20 +5873,52 @@
       <c r="K141" s="20"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="41"/>
-      <c r="B142" s="15"/>
-      <c r="C142" s="42"/>
-      <c r="D142" s="43"/>
+      <c r="A142" s="40"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="39"/>
       <c r="E142" s="9"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H142" s="43"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="39"/>
       <c r="I142" s="9"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="15"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="40"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="39"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="20"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="41"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="42"/>
+      <c r="D144" s="43"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="43"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5859,12 +5965,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K119"/>
+  <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A103" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K118" sqref="K118"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A115" activePane="bottomLeft"/>
+      <selection activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="K123" sqref="K123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6023,7 +6129,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>39.900000000000006</v>
+        <v>17.900000000000006</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -8374,9 +8480,13 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="41"/>
-      <c r="B119" s="15"/>
+      <c r="B119" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="C119" s="42"/>
-      <c r="D119" s="43"/>
+      <c r="D119" s="43">
+        <v>4</v>
+      </c>
       <c r="E119" s="50"/>
       <c r="F119" s="15"/>
       <c r="G119" s="42" t="str">
@@ -8386,7 +8496,213 @@
       <c r="H119" s="43"/>
       <c r="I119" s="50"/>
       <c r="J119" s="12"/>
-      <c r="K119" s="15"/>
+      <c r="K119" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="41">
+        <v>45231</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C120" s="13"/>
+      <c r="D120" s="39">
+        <v>4</v>
+      </c>
+      <c r="E120" s="9"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H120" s="39"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="41"/>
+      <c r="B121" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C121" s="13"/>
+      <c r="D121" s="39">
+        <v>5</v>
+      </c>
+      <c r="E121" s="9"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H121" s="39"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="41"/>
+      <c r="B122" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C122" s="13"/>
+      <c r="D122" s="39">
+        <v>5</v>
+      </c>
+      <c r="E122" s="9"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H122" s="39"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="41">
+        <v>45261</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C123" s="13"/>
+      <c r="D123" s="39">
+        <v>4</v>
+      </c>
+      <c r="E123" s="9"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H123" s="39"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="41"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="39"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H124" s="39"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="20"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="41"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H125" s="39"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="20"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="41"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="39"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H126" s="39"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="20"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="41"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="39"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H127" s="39"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="20"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="41"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="39"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H128" s="39"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="20"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="41"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="39"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H129" s="39"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="20"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="41"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
